--- a/data/trans_camb/P35_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,81</t>
+          <t>-4,39; 4,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,81</t>
+          <t>-4,4; 4,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,66</t>
+          <t>-6,68; 2,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,98</t>
+          <t>-5,1; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,34</t>
+          <t>-3,27; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -2,37</t>
+          <t>-3,17; 1,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,11</t>
+          <t>-5,25; -0,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,87</t>
+          <t>-4,24; 1,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -1,36</t>
+          <t>-4,69; 0,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 3,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 1,86</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 1,08</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 1,03</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 1,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 2,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>-13,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,37%</t>
+          <t>-9,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>-16,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>-33,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,92%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-14,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-12,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 36,85</t>
+          <t>-23,6; 28,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 34,09</t>
+          <t>-23,64; 30,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 5,04</t>
+          <t>-35,9; 15,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 31,94</t>
+          <t>-30,15; 31,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -4,08</t>
+          <t>-21,4; 34,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,14; -34,09</t>
+          <t>-33,73; 29,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 20,87</t>
+          <t>-55,17; -5,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 8,82</t>
+          <t>-44,64; 29,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -13,17</t>
+          <t>-57,4; 1,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 118,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; 18,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-30,46; 11,07</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 9,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; 12,31</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; 39,78</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,8</t>
+          <t>-7,82; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 3,45</t>
+          <t>-10,05; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -1,48</t>
+          <t>-10,6; 2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,97</t>
+          <t>-14,08; -3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,32</t>
+          <t>-9,19; 2,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; -0,37</t>
+          <t>-2,35; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,36</t>
+          <t>-2,57; 1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,12</t>
+          <t>-2,35; 2,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -1,92</t>
+          <t>-3,08; 2,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 5,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 2,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 1,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 1,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; -1,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 2,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>-13,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,4%</t>
+          <t>-16,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-44,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>-22,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,72%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-13,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-39,94%</t>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>156,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-13,21%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-38,9%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 23,83</t>
+          <t>-28,17; 19,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 17,41</t>
+          <t>-35,14; 10,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,9; -7,51</t>
+          <t>-37,37; 10,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 74,25</t>
+          <t>-62,61; -18,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 52,75</t>
+          <t>-50,4; 21,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,86; 5,54</t>
+          <t>-51,17; 69,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 19,51</t>
+          <t>-53,62; 59,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 17,51</t>
+          <t>-49,54; 82,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,85; -15,1</t>
+          <t>-68,55; 100,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-52,14; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-26,82; 19,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,6; 10,06</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-34,17; 12,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-58,43; -16,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-44,75; 35,25</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,35</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -0,62</t>
+          <t>-19,78; 0,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 10,87</t>
+          <t>-10,66; 11,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-15,75; 6,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 2,41</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,42; 2,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 1,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 6,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; -0,47</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; 4,23</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; -0,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 4,59</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 4,22</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-40,59%</t>
+          <t>-39,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-19,8%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-31,92%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-37,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-49,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-38,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-9,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-38,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-12,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,38; 1,91</t>
+          <t>-63,01; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 57,24</t>
+          <t>-34,1; 55,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-53,11; 31,35</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-79,24; 96,43</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 77,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-80,85; 93,8</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-87,9; 56,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-61,13; 236,81</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-62,69; -2,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-42,55; 35,83</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-62,58; -4,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-38,53; 39,09</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-47,81; 33,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>-1,88</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,7</t>
+          <t>-5,1; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,38</t>
+          <t>-4,53; 1,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -3,42</t>
+          <t>-6,85; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,96</t>
+          <t>-7,72; -0,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,42</t>
+          <t>-3,41; 2,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,44</t>
+          <t>-2,45; 1,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,65</t>
+          <t>-3,52; -0,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,6</t>
+          <t>-2,33; 1,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -2,97</t>
+          <t>-3,13; 0,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 2,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 0,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 0,16</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,27</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; -0,87</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-9,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-33,55%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-52,03%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-30,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>-26,27%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-24,34%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 9,21</t>
+          <t>-22,83; 7,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 13,21</t>
+          <t>-20,21; 9,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,75; -18,51</t>
+          <t>-30,62; 0,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 18,17</t>
+          <t>-40,3; -5,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -6,99</t>
+          <t>-22,26; 23,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,25; -29,39</t>
+          <t>-34,14; 20,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 5,47</t>
+          <t>-50,28; -7,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 5,05</t>
+          <t>-33,53; 23,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,11; -24,59</t>
+          <t>-49,23; 8,21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 131,89</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-21,55; 6,87</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 1,37</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-26,44; 3,04</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-36,94; -8,77</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; 29,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
